--- a/res/maps/original/ModeleMap.xlsx
+++ b/res/maps/original/ModeleMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="12915" windowHeight="6210"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="12915" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3506,7 +3508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J24" sqref="A1:AB36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5781,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R27">
         <v>0</v>
